--- a/template/NetApp/DataONTAPチェックシート.xlsx
+++ b/template/NetApp/DataONTAPチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="検査レポート" sheetId="3" r:id="rId3"/>
     <sheet name="エラーレポート" sheetId="4" r:id="rId4"/>
     <sheet name="チェックシート(NetAppDataONTAP)" sheetId="5" r:id="rId5"/>
-    <sheet name="テンプレート(Eternus)" sheetId="6" r:id="rId6"/>
+    <sheet name="テンプレート(NetAppDataONTAP)" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">利用手順!$A$1:$N$72</definedName>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="196">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -43,9 +43,6 @@
     <t>* NetApp Data ONTAP ストレージの構成情報を採取します。</t>
   </si>
   <si>
-    <t>* .\template\NetAppDataONTAP が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
-  </si>
-  <si>
     <t>1. プロジェクトディレクトリの作成と移動</t>
   </si>
   <si>
@@ -55,18 +52,12 @@
     <t>2. 検査シート編集</t>
   </si>
   <si>
-    <t>「.\template\NetAppDataONTAP\DataONTAPチェックシート.xlsx」(本ファイル)を開きます。</t>
-  </si>
-  <si>
     <t>シート「検査対象」を選択し、インベントリ収集対象の接続情報を入力します。</t>
   </si>
   <si>
     <t>検査ドメイン</t>
   </si>
   <si>
-    <t>検査するシナリオID NetAppDataONTAP を指定します。</t>
-  </si>
-  <si>
     <t>対象サーバ</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>テンプレートID</t>
   </si>
   <si>
-    <t>(オプション)  別シートの値の比較用テンプレートシートのID NetAppDataONTAP を指定します。</t>
-  </si>
-  <si>
     <t>エイリアス</t>
   </si>
   <si>
@@ -169,30 +157,15 @@
     <t>設定ファイルを編集します。</t>
   </si>
   <si>
-    <t>notepad++ .\template\NetAppDataONTAP\config_netapp.groovy</t>
-  </si>
-  <si>
     <t>以下の各検査対象の接続情報を編集します。</t>
   </si>
   <si>
-    <t>// NetAppDataONTAP 接続情報</t>
-  </si>
-  <si>
-    <t>account.NetAppDataONTAP.Test.user      = 'admin'</t>
-  </si>
-  <si>
-    <t>account.NetAppDataONTAP.Test.password  = 'password0'</t>
-  </si>
-  <si>
     <t>4. Getconfig インベントリ収集実行</t>
   </si>
   <si>
     <t>getconfig コマンドを実行して、検査対象のインベントリ収集を行います。</t>
   </si>
   <si>
-    <t>getconfig -c .\template\NetAppDataONTAP\config_netapp.groovy</t>
-  </si>
-  <si>
     <t>5. 実行結果の参照とコミット</t>
   </si>
   <si>
@@ -337,15 +310,9 @@
     <t>subsystem_health</t>
   </si>
   <si>
-    <t>総合ステータス</t>
-  </si>
-  <si>
     <t>storage_failover</t>
   </si>
   <si>
-    <t>エンクロージャステータス</t>
-  </si>
-  <si>
     <t>network_interface</t>
   </si>
   <si>
@@ -355,9 +322,6 @@
     <t>aggregate_status</t>
   </si>
   <si>
-    <t>アグリゲート情報</t>
-  </si>
-  <si>
     <t>df</t>
   </si>
   <si>
@@ -382,9 +346,6 @@
     <t>コントローラエンクロージャ</t>
   </si>
   <si>
-    <t>コントローラーエンクロージャのコンポーネント(保守部品ユニット：FRU)のステータス</t>
-  </si>
-  <si>
     <t>CPU.0.CPUStatus/StatusCode</t>
   </si>
   <si>
@@ -559,51 +520,6 @@
     <t>SNMPパラメーター</t>
   </si>
   <si>
-    <t>snmp_manager</t>
-  </si>
-  <si>
-    <t>SNMPマネージャーの設定</t>
-  </si>
-  <si>
-    <t>snmp_user</t>
-  </si>
-  <si>
-    <t>登録されているSNMPユーザーのリスト</t>
-  </si>
-  <si>
-    <t>snmp_trap</t>
-  </si>
-  <si>
-    <t>定義されているSNMPトラップのリスト</t>
-  </si>
-  <si>
-    <t>snmp_view</t>
-  </si>
-  <si>
-    <t>SNMP MIB ビューリスト</t>
-  </si>
-  <si>
-    <t>email_notification</t>
-  </si>
-  <si>
-    <t>E-mail通知機能</t>
-  </si>
-  <si>
-    <t>E-mail通知機能に関連するパラメーター</t>
-  </si>
-  <si>
-    <t>event_notification</t>
-  </si>
-  <si>
-    <t>イベント通知</t>
-  </si>
-  <si>
-    <t>イベント通知に使用されるパラメーター</t>
-  </si>
-  <si>
-    <t>syslog_notification</t>
-  </si>
-  <si>
     <t>ntp</t>
   </si>
   <si>
@@ -634,7 +550,165 @@
     <t>public</t>
   </si>
   <si>
+    <t>Y</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>* .\template\NetApp が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
+  </si>
+  <si>
+    <t>「.\template\NetApp\DataONTAPチェックシート.xlsx」(本ファイル)を開きます。</t>
+  </si>
+  <si>
+    <t>検査するシナリオID NetApp を指定します。</t>
+  </si>
+  <si>
+    <t>(オプション)  別シートの値の比較用テンプレートシートのID NetApp を指定します。</t>
+  </si>
+  <si>
+    <t>NetApp</t>
+  </si>
+  <si>
+    <t>notepad++ .\template\NetApp\config_netapp.groovy</t>
+  </si>
+  <si>
+    <t>// NetApp 接続情報</t>
+  </si>
+  <si>
+    <t>account.NetApp.Test.user      = 'admin'</t>
+  </si>
+  <si>
+    <t>account.NetApp.Test.password  = 'password0'</t>
+  </si>
+  <si>
+    <t>getconfig -c .\template\NetApp\config_netapp.groovy</t>
+  </si>
+  <si>
     <t>192.168.0.40</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>システムステータス</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>各ノードのHAステータス</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>'system health subsystem show' コマンドで各モジュールのステータス検索</t>
+    <rPh sb="36" eb="37">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>'storage failover show' コマンドで各ノードのHAステータス検索</t>
+    <rPh sb="29" eb="30">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>'network interface show' コマンドで IP 情報検索</t>
+    <rPh sb="34" eb="36">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>'aggr show -owner-name *' コマンドでアグリゲートディスク情報検索</t>
+    <rPh sb="41" eb="43">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>アグリゲートディスク構成情報</t>
+    <rPh sb="10" eb="12">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>'df' コマンドで、ディスクボリューム情報を検索</t>
+    <rPh sb="20" eb="22">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>'version' コマンドで OSバージョン検索</t>
+    <rPh sb="23" eb="25">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>'vserver show' コマンドで仮想サーバ情報検索</t>
+    <rPh sb="20" eb="22">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>'system node run -node local -command sysconfig -a'　コマンドで、システム構成情報検索</t>
+    <rPh sb="62" eb="64">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>'system snmp show' コマンドで SNMP Trap情報検索</t>
+    <rPh sb="34" eb="36">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>'cluster time-service ntp server show' コマンドで NTP 構成情報検索</t>
+    <rPh sb="49" eb="51">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ケンサク</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1104,7 +1178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1214,6 +1288,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1544,7 +1624,7 @@
   <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1632,7 +1712,7 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="30"/>
       <c r="B5" s="30" t="s">
-        <v>2</v>
+        <v>172</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -1667,7 +1747,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="30"/>
       <c r="C7" s="30"/>
@@ -1704,7 +1784,7 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="30"/>
       <c r="B9" s="30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
@@ -1739,7 +1819,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="30" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
@@ -1776,7 +1856,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
       <c r="B13" s="30" t="s">
-        <v>6</v>
+        <v>173</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -1795,7 +1875,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="30"/>
       <c r="B14" s="30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
@@ -1832,10 +1912,10 @@
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>9</v>
+        <v>174</v>
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
@@ -1853,10 +1933,10 @@
       <c r="A17" s="30"/>
       <c r="B17" s="30"/>
       <c r="C17" s="30" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E17" s="31"/>
       <c r="F17" s="31"/>
@@ -1874,10 +1954,10 @@
       <c r="A18" s="30"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
@@ -1895,10 +1975,10 @@
       <c r="A19" s="30"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
@@ -1916,10 +1996,10 @@
       <c r="A20" s="30"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
@@ -1937,10 +2017,10 @@
       <c r="A21" s="30"/>
       <c r="B21" s="30"/>
       <c r="C21" s="30" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E21" s="31"/>
       <c r="F21" s="31"/>
@@ -1958,10 +2038,10 @@
       <c r="A22" s="30"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
@@ -1995,7 +2075,7 @@
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
       <c r="B24" s="30" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
@@ -2032,7 +2112,7 @@
       <c r="A26" s="30"/>
       <c r="B26" s="32"/>
       <c r="C26" s="35" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
@@ -2051,25 +2131,25 @@
       <c r="A27" s="30"/>
       <c r="B27" s="32"/>
       <c r="C27" s="32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D27" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="I27" s="32" t="s">
         <v>25</v>
-      </c>
-      <c r="F27" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="I27" s="32" t="s">
-        <v>29</v>
       </c>
       <c r="J27" s="30"/>
       <c r="K27" s="30"/>
@@ -2081,28 +2161,28 @@
     <row r="28" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
       <c r="B28" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="G28" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="H28" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="I28" s="32" t="s">
         <v>33</v>
-      </c>
-      <c r="F28" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="I28" s="32" t="s">
-        <v>37</v>
       </c>
       <c r="J28" s="30"/>
       <c r="K28" s="30"/>
@@ -2117,20 +2197,18 @@
         <v>1</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>38</v>
+        <v>176</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>38</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="G29" s="33"/>
       <c r="H29" s="33"/>
       <c r="I29" s="33"/>
       <c r="J29" s="30"/>
@@ -2330,7 +2408,7 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A40" s="30" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B40" s="30"/>
       <c r="C40" s="30"/>
@@ -2367,7 +2445,7 @@
     <row r="42" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A42" s="30"/>
       <c r="B42" s="30" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
@@ -2404,7 +2482,7 @@
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="24" t="s">
-        <v>44</v>
+        <v>177</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
@@ -2439,7 +2517,7 @@
     <row r="46" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A46" s="30"/>
       <c r="B46" s="30" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C46" s="30"/>
       <c r="D46" s="30"/>
@@ -2476,7 +2554,7 @@
       <c r="A48" s="30"/>
       <c r="B48" s="30"/>
       <c r="C48" s="18" t="s">
-        <v>46</v>
+        <v>178</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
@@ -2512,7 +2590,7 @@
       <c r="A50" s="30"/>
       <c r="B50" s="30"/>
       <c r="C50" s="27" t="s">
-        <v>47</v>
+        <v>179</v>
       </c>
       <c r="D50" s="28"/>
       <c r="E50" s="28"/>
@@ -2531,7 +2609,7 @@
       <c r="A51" s="30"/>
       <c r="B51" s="30"/>
       <c r="C51" s="21" t="s">
-        <v>48</v>
+        <v>180</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -2565,7 +2643,7 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A53" s="30" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B53" s="30"/>
       <c r="C53" s="30"/>
@@ -2602,7 +2680,7 @@
     <row r="55" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A55" s="30"/>
       <c r="B55" s="30" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C55" s="30"/>
       <c r="D55" s="30"/>
@@ -2639,7 +2717,7 @@
       <c r="A57" s="30"/>
       <c r="B57" s="30"/>
       <c r="C57" s="24" t="s">
-        <v>51</v>
+        <v>181</v>
       </c>
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
@@ -2673,7 +2751,7 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A59" s="30" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B59" s="30"/>
       <c r="C59" s="30"/>
@@ -2710,7 +2788,7 @@
     <row r="61" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A61" s="30"/>
       <c r="B61" s="30" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C61" s="30"/>
       <c r="D61" s="30"/>
@@ -2747,7 +2825,7 @@
       <c r="A63" s="30"/>
       <c r="B63" s="30"/>
       <c r="C63" s="24" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D63" s="25"/>
       <c r="E63" s="25"/>
@@ -2782,7 +2860,7 @@
     <row r="65" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A65" s="30"/>
       <c r="B65" s="30" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C65" s="30"/>
       <c r="D65" s="30"/>
@@ -2801,7 +2879,7 @@
     <row r="66" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A66" s="30"/>
       <c r="B66" s="30" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C66" s="30"/>
       <c r="D66" s="30"/>
@@ -2838,7 +2916,7 @@
       <c r="A68" s="30"/>
       <c r="B68" s="30"/>
       <c r="C68" s="24" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D68" s="25"/>
       <c r="E68" s="25"/>
@@ -2873,7 +2951,7 @@
     <row r="70" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A70" s="30"/>
       <c r="B70" s="30" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C70" s="30"/>
       <c r="D70" s="30"/>
@@ -2910,7 +2988,7 @@
       <c r="A72" s="30"/>
       <c r="B72" s="30"/>
       <c r="C72" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D72" s="25"/>
       <c r="E72" s="25"/>
@@ -2968,8 +3046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2986,7 +3064,7 @@
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
       <c r="B1" s="36" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C1" s="36"/>
       <c r="D1" s="36"/>
@@ -2998,51 +3076,51 @@
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>33</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
@@ -3050,16 +3128,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -3366,57 +3444,57 @@
     </row>
     <row r="3" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -3425,24 +3503,24 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="14" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
@@ -3452,38 +3530,38 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="13" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="14" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
@@ -3655,33 +3733,33 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -3729,11 +3807,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="80" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3773,776 +3849,668 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>100</v>
+        <v>89</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F6" s="6"/>
+        <v>89</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>104</v>
+        <v>89</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>106</v>
+        <v>89</v>
+      </c>
+      <c r="F8" s="38" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>108</v>
+        <v>89</v>
+      </c>
+      <c r="F9" s="38" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>110</v>
-      </c>
       <c r="D10" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="5" t="s">
-        <v>110</v>
+      <c r="F10" s="38" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>115</v>
+        <v>89</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D17" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="D18" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D19" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D20" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D21" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D22" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D25" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="D26" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D27" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D28" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="D30" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="5" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="D31" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D32" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D33" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
       <c r="B34" s="5" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="D34" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
       <c r="B35" s="5" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="D35" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
       <c r="B36" s="5" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
       <c r="B37" s="5" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
       <c r="B38" s="5" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="D38" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="5"/>
       <c r="B39" s="5" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D39" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
       <c r="B40" s="5" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="D40" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="D41" s="34" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>173</v>
+        <v>89</v>
+      </c>
+      <c r="F41" s="38" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A42" s="5"/>
+      <c r="A42" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="B42" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>175</v>
+        <v>161</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="D42" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D43" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D44" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="5"/>
-      <c r="F44" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D45" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="5"/>
-      <c r="F45" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D46" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D47" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="5"/>
-      <c r="F47" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D48" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" s="5"/>
-      <c r="F48" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A49" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D49" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>190</v>
+        <v>34</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="37" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4580,30 +4548,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4611,13 +4579,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4628,7 +4596,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="9"/>
       <c r="D4" s="5" t="s">
-        <v>197</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4639,7 +4607,7 @@
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">

--- a/template/NetApp/DataONTAPチェックシート.xlsx
+++ b/template/NetApp/DataONTAPチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="192">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -248,24 +248,6 @@
   </si>
   <si>
     <t>_redmine:ストレージ</t>
-  </si>
-  <si>
-    <t>enclosure.StorageSystemName</t>
-  </si>
-  <si>
-    <t>enclosure.ModelName</t>
-  </si>
-  <si>
-    <t>raid_groups</t>
-  </si>
-  <si>
-    <t>network</t>
-  </si>
-  <si>
-    <t>net_subnet</t>
-  </si>
-  <si>
-    <t>net_route</t>
   </si>
   <si>
     <t>Eternus</t>
@@ -709,6 +691,14 @@
     <rPh sb="53" eb="55">
       <t>ケンサク</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>NetAppDataONTAP</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>version</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -1284,16 +1274,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1712,7 +1702,7 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="30"/>
       <c r="B5" s="30" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -1856,7 +1846,7 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="30"/>
       <c r="B13" s="30" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -1915,7 +1905,7 @@
         <v>6</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E16" s="31"/>
       <c r="F16" s="31"/>
@@ -1999,7 +1989,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
@@ -2111,15 +2101,15 @@
     <row r="26" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
       <c r="B26" s="32"/>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
       <c r="J26" s="30"/>
       <c r="K26" s="30"/>
       <c r="L26" s="30"/>
@@ -2197,7 +2187,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D29" s="33" t="s">
         <v>35</v>
@@ -2482,7 +2472,7 @@
       <c r="A44" s="30"/>
       <c r="B44" s="30"/>
       <c r="C44" s="24" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
@@ -2554,7 +2544,7 @@
       <c r="A48" s="30"/>
       <c r="B48" s="30"/>
       <c r="C48" s="18" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
@@ -2590,7 +2580,7 @@
       <c r="A50" s="30"/>
       <c r="B50" s="30"/>
       <c r="C50" s="27" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D50" s="28"/>
       <c r="E50" s="28"/>
@@ -2609,7 +2599,7 @@
       <c r="A51" s="30"/>
       <c r="B51" s="30"/>
       <c r="C51" s="21" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
@@ -2717,7 +2707,7 @@
       <c r="A57" s="30"/>
       <c r="B57" s="30"/>
       <c r="C57" s="24" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D57" s="25"/>
       <c r="E57" s="25"/>
@@ -3063,15 +3053,15 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
@@ -3134,7 +3124,7 @@
         <v>35</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>37</v>
@@ -3397,8 +3387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3483,7 +3473,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
         <v>64</v>
       </c>
@@ -3512,7 +3502,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="12" t="s">
         <v>64</v>
       </c>
@@ -3533,7 +3523,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="12" t="s">
         <v>64</v>
       </c>
@@ -3541,30 +3531,22 @@
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
       <c r="E6" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>72</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="F6" s="14"/>
       <c r="G6" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="I6" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>76</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -3579,7 +3561,7 @@
       <c r="L7" s="12"/>
       <c r="M7" s="13"/>
     </row>
-    <row r="8" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -3594,7 +3576,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="13"/>
     </row>
-    <row r="9" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -3609,7 +3591,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -3624,7 +3606,7 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
     </row>
-    <row r="11" spans="1:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -3733,16 +3715,16 @@
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -3750,16 +3732,16 @@
         <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -3809,7 +3791,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3852,665 +3836,665 @@
         <v>37</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D5" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>185</v>
+        <v>83</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D6" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>186</v>
+        <v>83</v>
+      </c>
+      <c r="F6" s="35" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>187</v>
+        <v>83</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D8" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>188</v>
+        <v>83</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C9" s="5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>190</v>
+        <v>83</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D10" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="38" t="s">
-        <v>191</v>
+      <c r="F10" s="36" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D11" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>192</v>
+        <v>165</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.5" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D12" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>193</v>
+        <v>83</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D13" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D14" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D15" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
       <c r="B16" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="D16" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D17" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="5"/>
       <c r="B18" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D18" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D19" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
       <c r="B20" s="5" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D20" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D21" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="5"/>
       <c r="B22" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D22" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E22" s="5"/>
       <c r="F22" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="5"/>
       <c r="B23" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D23" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
       <c r="B24" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D24" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
       <c r="B25" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D25" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D26" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="5"/>
       <c r="B27" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D27" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D28" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
       <c r="B29" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D29" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="5"/>
       <c r="B30" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D30" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="5"/>
       <c r="B31" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D31" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="5"/>
       <c r="B32" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D32" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="5"/>
       <c r="B33" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D33" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A34" s="5"/>
       <c r="B34" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D34" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E34" s="5"/>
       <c r="F34" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
       <c r="B35" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D35" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A36" s="5"/>
       <c r="B36" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D36" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A37" s="5"/>
       <c r="B37" s="5" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D37" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A38" s="5"/>
       <c r="B38" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D38" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A39" s="5"/>
       <c r="B39" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D39" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A40" s="5"/>
       <c r="B40" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D40" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D41" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F41" s="38" t="s">
-        <v>194</v>
+        <v>83</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D42" s="34" t="s">
         <v>34</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>195</v>
+        <v>83</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4548,16 +4532,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -4565,13 +4549,13 @@
         <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4579,13 +4563,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4596,7 +4580,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="9"/>
       <c r="D4" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">
@@ -4607,7 +4591,7 @@
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25" x14ac:dyDescent="0.15">

--- a/template/NetApp/DataONTAPチェックシート.xlsx
+++ b/template/NetApp/DataONTAPチェックシート.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="frsw3"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="12765" windowHeight="8190" tabRatio="630"/>
+    <workbookView activeTab="0" xWindow="240" yWindow="60" windowWidth="12765" windowHeight="8190" tabRatio="630"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId4"/>
@@ -21,10 +21,10 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1549065014" val="934" rev="123" revOS="4"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1549065014" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1549065014" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1549065014"/>
+      <pm:revision xmlns:pm="smNativeData" day="1549225915" val="944" rev="123" revOS="4"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1549225915" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1549225915" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1549225915"/>
     </ext>
   </extLst>
 </workbook>
@@ -39,7 +39,7 @@
     <t>* NetApp Data ONTAP ストレージの構成情報を採取します。</t>
   </si>
   <si>
-    <t>* NetApp クラスターマネージメントサーバに接続し、インベントリ採取用のコマンドを実行します。</t>
+    <t>* NetApp CM クラスターマネージメントサーバに接続し、インベントリ採取用のコマンドを実行します。</t>
   </si>
   <si>
     <t>* .\template\NetApp が検査シナリオディレクトリとなり、本ディレクトリ下のExcel シート、設定ファイルを編集します。</t>
@@ -225,7 +225,7 @@
     <t>Redmine チケット登録</t>
   </si>
   <si>
-    <t>getconfig -rp {Redmineプロジェクト名}</t>
+    <t>getconfig -c .\template\NetApp\config_netapp.groovy -rp {Redmineプロジェクト名}</t>
   </si>
   <si>
     <t>(*)</t>
@@ -237,7 +237,7 @@
     <t>NetAppDataONTAP</t>
   </si>
   <si>
-    <t>192.168.0.40</t>
+    <t>192.168.10.50</t>
   </si>
   <si>
     <t>No</t>
@@ -641,7 +641,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1549065014" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1549225915" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -656,7 +656,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1549065014" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1549225915" ulstyle="none" kern="1">
             <pm:latin face="Arial" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -672,7 +672,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1549065014" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1549225915" ulstyle="none" kern="1">
             <pm:latin face="ＭＳ Ｐゴシック" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -687,7 +687,7 @@
       <sz val="11"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1549065014" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1549225915" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="220" lang="default"/>
             <pm:cs face="Times New Roman" sz="220" lang="default"/>
             <pm:ea face="SimSun" sz="220" lang="default"/>
@@ -703,7 +703,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1549065014" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1549225915" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -719,7 +719,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1549065014" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1549225915" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="200" lang="default"/>
             <pm:cs face="Times New Roman" sz="200" lang="default"/>
             <pm:ea face="SimSun" sz="200" lang="default"/>
@@ -736,7 +736,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1549065014" fgClr="3F3F3F" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1549225915" fgClr="3F3F3F" ulstyle="none" kern="1">
             <pm:latin face="Meiryo UI" sz="200" lang="default" weight="bold"/>
             <pm:cs face="Times New Roman" sz="200" lang="default" weight="bold"/>
             <pm:ea face="SimSun" sz="200" lang="default" weight="bold"/>
@@ -758,7 +758,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1549065014" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1549225915" type="1" fgLvl="100" fgClr="00CCFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -772,7 +772,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1549065014" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1549225915" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -783,7 +783,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1549065014" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1549225915" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -794,7 +794,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1549065014" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1549225915" type="1" fgLvl="100" fgClr="00F2F2F2" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -805,7 +805,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1549065014" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1549225915" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -816,7 +816,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1549065014" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1549225915" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -827,7 +827,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1549065014" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1549225915" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -838,7 +838,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1549065014" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1549225915" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -849,7 +849,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1549065014" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1549225915" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -860,7 +860,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1549065014" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1549225915" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -871,7 +871,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1549065014" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1549225915" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -882,7 +882,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1549065014" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1549225915" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -893,7 +893,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1549065014" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1549225915" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -904,7 +904,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1549065014" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1549225915" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -915,7 +915,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1549065014" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1549225915" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -926,7 +926,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1549065014" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
+            <pm:shade xmlns:pm="smNativeData" id="1549225915" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="0" bgClr="00FFFFFF"/>
           </ext>
         </extLst>
       </patternFill>
@@ -937,7 +937,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1549065014" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1549225915" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -959,7 +959,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1549065014"/>
+          <pm:border xmlns:pm="smNativeData" id="1549225915"/>
         </ext>
       </extLst>
     </border>
@@ -978,7 +978,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1549065014">
+          <pm:border xmlns:pm="smNativeData" id="1549225915">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1002,7 +1002,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1549065014">
+          <pm:border xmlns:pm="smNativeData" id="1549225915">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1026,7 +1026,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1549065014"/>
+          <pm:border xmlns:pm="smNativeData" id="1549225915"/>
         </ext>
       </extLst>
     </border>
@@ -1045,7 +1045,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1549065014">
+          <pm:border xmlns:pm="smNativeData" id="1549225915">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="3F3F3F"/>
@@ -1069,7 +1069,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1549065014">
+          <pm:border xmlns:pm="smNativeData" id="1549225915">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1093,7 +1093,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1549065014">
+          <pm:border xmlns:pm="smNativeData" id="1549225915">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1115,7 +1115,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1549065014">
+          <pm:border xmlns:pm="smNativeData" id="1549225915">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1136,7 +1136,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1549065014">
+          <pm:border xmlns:pm="smNativeData" id="1549225915">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1158,7 +1158,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1549065014">
+          <pm:border xmlns:pm="smNativeData" id="1549225915">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1180,7 +1180,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1549065014">
+          <pm:border xmlns:pm="smNativeData" id="1549225915">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1201,7 +1201,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1549065014">
+          <pm:border xmlns:pm="smNativeData" id="1549225915">
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1223,7 +1223,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1549065014">
+          <pm:border xmlns:pm="smNativeData" id="1549225915">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1246,7 +1246,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1549065014">
+          <pm:border xmlns:pm="smNativeData" id="1549225915">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
@@ -1268,7 +1268,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1549065014">
+          <pm:border xmlns:pm="smNativeData" id="1549225915">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1291,7 +1291,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1549065014">
+          <pm:border xmlns:pm="smNativeData" id="1549225915">
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1312,7 +1312,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1549065014">
+          <pm:border xmlns:pm="smNativeData" id="1549225915">
             <pm:line position="right" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
           </pm:border>
         </ext>
@@ -1333,7 +1333,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1549065014">
+          <pm:border xmlns:pm="smNativeData" id="1549225915">
             <pm:line position="top" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="bottom" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
             <pm:line position="left" type="1" style="0" width="20" dist="20" width2="20" rgb="000000"/>
@@ -1357,7 +1357,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1549065014"/>
+          <pm:border xmlns:pm="smNativeData" id="1549225915"/>
         </ext>
       </extLst>
     </border>
@@ -1523,10 +1523,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1549065014" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1549225915" count="1">
         <pm:charStyle name="標準" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1549065014" count="3">
+      <pm:colors xmlns:pm="smNativeData" id="1549225915" count="3">
         <pm:color name="色 24" rgb="3F3F3F"/>
         <pm:color name="色 25" rgb="CCFFFF"/>
         <pm:color name="色 26" rgb="F2F2F2"/>
@@ -1768,7 +1768,7 @@
   </sheetPr>
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView view="normal" zoomScale="90" workbookViewId="0">
+    <sheetView tabSelected="1" view="normal" zoomScale="90" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -3286,7 +3286,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1549065014" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="1"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1549225915" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="1"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3297,16 +3297,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1549065014" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1549065014" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1549065014" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1549065014" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1549225915" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1549225915" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1549225915" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1549225915" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1549065014" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1549225915" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3319,8 +3319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView view="normal" zoomScale="90" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -3658,7 +3658,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1549065014" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1549225915" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -3669,16 +3669,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1549065014" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1549065014" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1549065014" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1549065014" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1549225915" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1549225915" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1549225915" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1549225915" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1549065014" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1549225915" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -3801,7 +3801,7 @@
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1549065014" r="4" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1549225915" r="4" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -3830,7 +3830,7 @@
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1549065014" r="5" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1549225915" r="5" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -3863,7 +3863,7 @@
       </c>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1549065014" r="6" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1549225915" r="6" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -3882,7 +3882,7 @@
       <c r="L7" s="20"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1549065014" r="7" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1549225915" r="7" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -3901,7 +3901,7 @@
       <c r="L8" s="20"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1549065014" r="8" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1549225915" r="8" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -3920,7 +3920,7 @@
       <c r="L9" s="22"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1549065014" r="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1549225915" r="9" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -3939,7 +3939,7 @@
       <c r="L10" s="22"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1549065014" r="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1549225915" r="10" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -3958,7 +3958,7 @@
       <c r="L11" s="22"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:rowDef xmlns:pm="smNativeData" id="1549065014" r="11" hidden="1" collapsedDB="0" collapsedOL="0"/>
+          <pm:rowDef xmlns:pm="smNativeData" id="1549225915" r="11" hidden="1" collapsedDB="0" collapsedOL="0"/>
         </ext>
       </extLst>
     </row>
@@ -4022,7 +4022,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1549065014" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1549225915" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4031,16 +4031,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1549065014" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1549065014" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1549065014" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1549065014" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1549225915" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1549225915" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1549225915" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1549225915" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1549065014" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1549225915" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4129,7 +4129,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1549065014" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1549225915" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4138,16 +4138,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1549065014" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1549065014" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1549065014" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1549065014" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1549225915" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1549225915" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1549225915" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1549225915" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1549065014" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1549225915" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4746,7 +4746,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1549065014" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1549225915" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4755,16 +4755,16 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1549065014" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1549065014" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1549065014" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1549065014" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1549225915" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1549225915" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1549225915" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1549225915" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1549065014" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1549225915" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -5728,7 +5728,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1549065014" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1549225915" printRowHead="0" printColHead="0" printHeadLine="1" printFootLine="1" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -5739,16 +5739,16 @@
     <oddFooter>&amp;C&amp;"Times New Roman"&amp;12ページ &amp;P</oddFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1549065014" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1549065014" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1549065014" Id="0" type="0" value="0"/>
-        <pm:paperBin xmlns:pm="smNativeData" id="1549065014" Id="1" type="0" value="0"/>
+        <pm:header xmlns:pm="smNativeData" id="1549225915" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1549225915" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1549225915" Id="0" type="0" value="0"/>
+        <pm:paperBin xmlns:pm="smNativeData" id="1549225915" Id="1" type="0" value="0"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1549065014" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1549225915" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/template/NetApp/DataONTAPチェックシート.xlsx
+++ b/template/NetApp/DataONTAPチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="12765" windowHeight="8190" tabRatio="630"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="12765" windowHeight="8190" tabRatio="630" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="203">
   <si>
     <t>0. はじめに</t>
   </si>
@@ -614,6 +614,52 @@
   </si>
   <si>
     <t>kcloud</t>
+  </si>
+  <si>
+    <t>Category</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ハードウェア</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>メモリ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ストレージ</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>SNMP</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>NTP</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>リリース</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>その他設定</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>ネットワーク</t>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -621,10 +667,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="184" formatCode="_-_¥* #,##0.00_-;\-_¥* #,##0.00_-;_-_¥* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="_-_¥* #,##0_-;\-_¥* #,##0_-;_-_¥* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="186" formatCode="_-&quot;¥&quot;* #,##0.00_-;\-&quot;¥&quot;* #,##0.00_-;_-&quot;¥&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="187" formatCode="_-&quot;¥&quot;* #,##0_-;\-&quot;¥&quot;* #,##0_-;_-&quot;¥&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-_¥* #,##0.00_-;\-_¥* #,##0.00_-;_-_¥* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-_¥* #,##0_-;\-_¥* #,##0_-;_-_¥* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;¥&quot;* #,##0.00_-;\-&quot;¥&quot;* #,##0.00_-;_-&quot;¥&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;¥&quot;* #,##0_-;\-&quot;¥&quot;* #,##0_-;_-&quot;¥&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -1005,16 +1051,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1027,7 +1073,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1131,6 +1177,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1459,7 +1508,7 @@
   </sheetPr>
   <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3748,587 +3797,680 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
-    <col min="2" max="2" width="31.25" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="7.375" customWidth="1"/>
-    <col min="6" max="6" width="54.875" customWidth="1"/>
-    <col min="7" max="9" width="13.375" customWidth="1"/>
-    <col min="10" max="1025" width="7.375" customWidth="1"/>
+    <col min="2" max="2" width="10.75" customWidth="1"/>
+    <col min="3" max="4" width="34.625" customWidth="1"/>
+    <col min="5" max="5" width="18.625" customWidth="1"/>
+    <col min="6" max="6" width="7.375" customWidth="1"/>
+    <col min="7" max="7" width="54.875" customWidth="1"/>
+    <col min="8" max="10" width="13.375" customWidth="1"/>
+    <col min="11" max="1026" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>102</v>
+      <c r="B4" s="35" t="s">
+        <v>193</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>104</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>108</v>
+      <c r="B5" s="35" t="s">
+        <v>194</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F5" s="31" t="s">
+      <c r="G5" s="31" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>111</v>
+      <c r="B6" s="35" t="s">
+        <v>194</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="31" t="s">
+      <c r="G6" s="31" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
-      <c r="B7" s="5" t="s">
-        <v>114</v>
+      <c r="B7" s="35" t="s">
+        <v>195</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="31" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="31" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
-      <c r="B8" s="5" t="s">
-        <v>117</v>
+      <c r="B8" s="35" t="s">
+        <v>195</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="31" t="s">
+      <c r="F8" s="5"/>
+      <c r="G8" s="31" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
-      <c r="B9" s="5" t="s">
-        <v>92</v>
+      <c r="B9" s="35" t="s">
+        <v>195</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="31" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="31" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
-      <c r="B10" s="5" t="s">
-        <v>122</v>
+      <c r="B10" s="35" t="s">
+        <v>196</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="31" t="s">
+      <c r="F10" s="5"/>
+      <c r="G10" s="31" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
-      <c r="B11" s="5" t="s">
-        <v>125</v>
+      <c r="B11" s="35" t="s">
+        <v>196</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="31" t="s">
+      <c r="F11" s="5"/>
+      <c r="G11" s="31" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>91</v>
+      <c r="B12" s="35" t="s">
+        <v>194</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="G12" s="32" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>93</v>
+      <c r="B13" s="35" t="s">
+        <v>197</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="G13" s="32" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>132</v>
+      <c r="B14" s="35" t="s">
+        <v>198</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="G14" s="32" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
-      <c r="B15" s="5" t="s">
-        <v>135</v>
+      <c r="B15" s="35" t="s">
+        <v>198</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
-      <c r="B16" s="5" t="s">
-        <v>137</v>
+      <c r="B16" s="35" t="s">
+        <v>198</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>139</v>
+      <c r="B17" s="35" t="s">
+        <v>199</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="31" t="s">
+      <c r="G17" s="31" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>142</v>
+      <c r="B18" s="35" t="s">
+        <v>197</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="31" t="s">
+      <c r="G18" s="31" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
-      <c r="B19" s="5" t="s">
-        <v>145</v>
+      <c r="B19" s="35" t="s">
+        <v>197</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5"/>
+      <c r="G19" s="6" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
-      <c r="B20" s="5" t="s">
-        <v>148</v>
+      <c r="B20" s="35" t="s">
+        <v>197</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
-      <c r="B21" s="5" t="s">
-        <v>151</v>
+      <c r="B21" s="35" t="s">
+        <v>197</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5"/>
+      <c r="G21" s="6" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>154</v>
+      <c r="B22" s="35" t="s">
+        <v>197</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E22" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="G22" s="32" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>157</v>
+      <c r="B23" s="35" t="s">
+        <v>197</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F23" s="32" t="s">
+      <c r="G23" s="32" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
-      <c r="B24" s="5" t="s">
-        <v>159</v>
+      <c r="B24" s="35" t="s">
+        <v>197</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
-      <c r="B25" s="5" t="s">
-        <v>162</v>
+      <c r="B25" s="35" t="s">
+        <v>197</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="5"/>
+      <c r="G25" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>165</v>
+      <c r="B26" s="35" t="s">
+        <v>200</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="5"/>
+      <c r="G26" s="32" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>168</v>
+      <c r="B27" s="35" t="s">
+        <v>201</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="G27" s="32" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
-      <c r="B28" s="5" t="s">
-        <v>172</v>
+      <c r="B28" s="35" t="s">
+        <v>201</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="5"/>
+      <c r="G28" s="5" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
-      <c r="B29" s="5" t="s">
-        <v>174</v>
+      <c r="B29" s="35" t="s">
+        <v>201</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="5"/>
+      <c r="G29" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>176</v>
+      <c r="B30" s="35" t="s">
+        <v>196</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E30" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="F30" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F30" s="31" t="s">
+      <c r="G30" s="31" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>179</v>
+      <c r="B31" s="35" t="s">
+        <v>180</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E31" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="G31" s="32" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>182</v>
+      <c r="B32" s="35" t="s">
+        <v>201</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D32" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E32" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F32" s="31" t="s">
+      <c r="G32" s="31" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>94</v>
+      <c r="B33" s="35" t="s">
+        <v>202</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D33" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="G33" s="32" t="s">
         <v>186</v>
       </c>
     </row>

--- a/template/NetApp/DataONTAPチェックシート.xlsx
+++ b/template/NetApp/DataONTAPチェックシート.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="12765" windowHeight="8190" tabRatio="630" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="12765" windowHeight="8190" tabRatio="630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="利用手順" sheetId="1" r:id="rId1"/>
@@ -1173,13 +1173,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2021,15 +2021,15 @@
     <row r="27" spans="1:15" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="27"/>
       <c r="B27" s="30"/>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
       <c r="J27" s="27"/>
       <c r="K27" s="27"/>
       <c r="L27" s="27"/>
@@ -3043,7 +3043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3058,15 +3058,15 @@
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A1" s="10"/>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
@@ -3799,18 +3799,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="10.75" customWidth="1"/>
     <col min="3" max="4" width="34.625" customWidth="1"/>
-    <col min="5" max="5" width="18.625" customWidth="1"/>
-    <col min="6" max="6" width="7.375" customWidth="1"/>
-    <col min="7" max="7" width="54.875" customWidth="1"/>
+    <col min="5" max="5" width="7.375" customWidth="1"/>
+    <col min="6" max="6" width="54.875" customWidth="1"/>
+    <col min="7" max="7" width="18.625" customWidth="1"/>
     <col min="8" max="10" width="13.375" customWidth="1"/>
     <col min="11" max="1026" width="7.375" customWidth="1"/>
   </cols>
@@ -3846,7 +3844,7 @@
       <c r="A4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="33" t="s">
         <v>193</v>
       </c>
       <c r="C4" s="5" t="s">
@@ -3856,20 +3854,20 @@
         <v>102</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="33" t="s">
         <v>194</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -3878,21 +3876,21 @@
       <c r="D5" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="33" t="s">
         <v>194</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -3901,19 +3899,19 @@
       <c r="D6" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="31" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="33" t="s">
         <v>195</v>
       </c>
       <c r="C7" s="5" t="s">
@@ -3922,17 +3920,17 @@
       <c r="D7" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5"/>
+      <c r="F7" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="31" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="33" t="s">
         <v>195</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -3941,17 +3939,17 @@
       <c r="D8" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5"/>
+      <c r="F8" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="31" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="33" t="s">
         <v>195</v>
       </c>
       <c r="C9" s="5" t="s">
@@ -3960,17 +3958,17 @@
       <c r="D9" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5"/>
+      <c r="F9" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="31" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="33" t="s">
         <v>196</v>
       </c>
       <c r="C10" s="5" t="s">
@@ -3979,17 +3977,17 @@
       <c r="D10" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5"/>
+      <c r="F10" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="31" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="33" t="s">
         <v>196</v>
       </c>
       <c r="C11" s="5" t="s">
@@ -3998,19 +3996,19 @@
       <c r="D11" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="31" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="33" t="s">
         <v>194</v>
       </c>
       <c r="C12" s="5" t="s">
@@ -4019,21 +4017,21 @@
       <c r="D12" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="33" t="s">
         <v>197</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -4042,21 +4040,21 @@
       <c r="D13" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="33" t="s">
         <v>198</v>
       </c>
       <c r="C14" s="5" t="s">
@@ -4065,19 +4063,19 @@
       <c r="D14" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="33" t="s">
         <v>198</v>
       </c>
       <c r="C15" s="5" t="s">
@@ -4086,17 +4084,17 @@
       <c r="D15" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A16" s="5"/>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="33" t="s">
         <v>198</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -4105,19 +4103,19 @@
       <c r="D16" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="33" t="s">
         <v>199</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -4126,21 +4124,21 @@
       <c r="D17" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="G17" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A18" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="33" t="s">
         <v>197</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -4149,19 +4147,19 @@
       <c r="D18" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G18" s="31" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="5"/>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="33" t="s">
         <v>197</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -4170,17 +4168,17 @@
       <c r="D19" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5"/>
+      <c r="F19" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="6" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A20" s="5"/>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="33" t="s">
         <v>197</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -4189,17 +4187,17 @@
       <c r="D20" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5"/>
+      <c r="F20" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A21" s="5"/>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="33" t="s">
         <v>197</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -4208,19 +4206,19 @@
       <c r="D21" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5"/>
+      <c r="F21" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="33" t="s">
         <v>197</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -4229,21 +4227,21 @@
       <c r="D22" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="33" t="s">
         <v>197</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -4252,19 +4250,19 @@
       <c r="D23" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" s="32" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A24" s="5"/>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="33" t="s">
         <v>197</v>
       </c>
       <c r="C24" s="5" t="s">
@@ -4273,17 +4271,17 @@
       <c r="D24" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A25" s="5"/>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="33" t="s">
         <v>197</v>
       </c>
       <c r="C25" s="5" t="s">
@@ -4292,19 +4290,19 @@
       <c r="D25" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5"/>
+      <c r="F25" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="33" t="s">
         <v>200</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -4313,19 +4311,19 @@
       <c r="D26" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5"/>
+      <c r="F26" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="32" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="33" t="s">
         <v>201</v>
       </c>
       <c r="C27" s="5" t="s">
@@ -4334,19 +4332,19 @@
       <c r="D27" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F27" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="33" t="s">
         <v>201</v>
       </c>
       <c r="C28" s="5" t="s">
@@ -4355,17 +4353,17 @@
       <c r="D28" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="33" t="s">
         <v>201</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -4374,19 +4372,19 @@
       <c r="D29" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="33" t="s">
         <v>196</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -4395,21 +4393,21 @@
       <c r="D30" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="G30" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G30" s="31" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="33" t="s">
         <v>180</v>
       </c>
       <c r="C31" s="5" t="s">
@@ -4418,21 +4416,21 @@
       <c r="D31" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G31" s="32" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="33" t="s">
         <v>201</v>
       </c>
       <c r="C32" s="5" t="s">
@@ -4441,21 +4439,21 @@
       <c r="D32" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="G32" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G32" s="31" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="33" t="s">
         <v>202</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -4464,14 +4462,14 @@
       <c r="D33" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>186</v>
       </c>
     </row>
   </sheetData>
